--- a/BalanceSheet/IT_bal.xlsx
+++ b/BalanceSheet/IT_bal.xlsx
@@ -1426,19 +1426,19 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>157013000.0</v>
+        <v>39000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>48811000.0</v>
+        <v>708000000.0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>175582000.0</v>
+        <v>656000000.0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>-269467000.0</v>
+        <v>457000000.0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>127681000.0</v>
+        <v>712000000.0</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>593695000.0</v>
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>-46642000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-4735000.0</v>
@@ -2438,7 +2438,7 @@
         <v>25537000.0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-4997000.0</v>
+        <v>110000000.0</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
